--- a/Support/Sunac2019/Data/门窗算量表格模板.xlsx
+++ b/Support/Sunac2019/Data/门窗算量表格模板.xlsx
@@ -276,9 +276,6 @@
     <t>型材,玻璃,五金件，辅材及其他+各项费用</t>
   </si>
   <si>
-    <t>税前直接费单价（元/M2)</t>
-  </si>
-  <si>
     <t>*</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -615,6 +612,10 @@
   </si>
   <si>
     <t>个</t>
+  </si>
+  <si>
+    <t>税前直接费单价（元/M2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1874,13 +1875,31 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1898,12 +1917,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1943,63 +1956,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2015,13 +1971,58 @@
     <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2069,7 +2070,7 @@
         <xdr:cNvPr id="2" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2144,7 @@
         <xdr:cNvPr id="3" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2218,7 @@
         <xdr:cNvPr id="4" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2292,7 @@
         <xdr:cNvPr id="5" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2366,7 @@
         <xdr:cNvPr id="6" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2440,7 @@
         <xdr:cNvPr id="7" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2509,7 @@
         <xdr:cNvPr id="8" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2578,7 @@
         <xdr:cNvPr id="9" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2647,7 @@
         <xdr:cNvPr id="10" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2716,7 @@
         <xdr:cNvPr id="11" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2785,7 @@
         <xdr:cNvPr id="12" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2854,7 @@
         <xdr:cNvPr id="13" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2923,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2992,7 @@
         <xdr:cNvPr id="15" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3061,7 @@
         <xdr:cNvPr id="16" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3130,7 @@
         <xdr:cNvPr id="17" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3199,7 @@
         <xdr:cNvPr id="18" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3267,7 +3268,7 @@
         <xdr:cNvPr id="19" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3337,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3406,7 @@
         <xdr:cNvPr id="21" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3474,7 +3475,7 @@
         <xdr:cNvPr id="22" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3543,7 +3544,7 @@
         <xdr:cNvPr id="23" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,7 +3613,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3682,7 @@
         <xdr:cNvPr id="25" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3750,7 +3751,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3819,7 +3820,7 @@
         <xdr:cNvPr id="27" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3888,7 +3889,7 @@
         <xdr:cNvPr id="28" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3957,7 +3958,7 @@
         <xdr:cNvPr id="29" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4026,7 +4027,7 @@
         <xdr:cNvPr id="30" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,7 +4096,7 @@
         <xdr:cNvPr id="31" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,7 +4165,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4233,7 +4234,7 @@
         <xdr:cNvPr id="33" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,7 +4303,7 @@
         <xdr:cNvPr id="34" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4371,7 +4372,7 @@
         <xdr:cNvPr id="35" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4440,7 +4441,7 @@
         <xdr:cNvPr id="36" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4510,7 @@
         <xdr:cNvPr id="37" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4578,7 +4579,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4648,7 @@
         <xdr:cNvPr id="39" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4716,7 +4717,7 @@
         <xdr:cNvPr id="40" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,7 +4786,7 @@
         <xdr:cNvPr id="41" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4854,7 +4855,7 @@
         <xdr:cNvPr id="42" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4923,7 +4924,7 @@
         <xdr:cNvPr id="43" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4992,7 +4993,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5061,7 +5062,7 @@
         <xdr:cNvPr id="45" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5131,7 @@
         <xdr:cNvPr id="46" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5199,7 +5200,7 @@
         <xdr:cNvPr id="47" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5268,7 +5269,7 @@
         <xdr:cNvPr id="48" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5337,7 +5338,7 @@
         <xdr:cNvPr id="49" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5406,7 +5407,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,7 +5476,7 @@
         <xdr:cNvPr id="51" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5544,7 +5545,7 @@
         <xdr:cNvPr id="52" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5614,7 @@
         <xdr:cNvPr id="53" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5682,7 +5683,7 @@
         <xdr:cNvPr id="54" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5751,7 +5752,7 @@
         <xdr:cNvPr id="55" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5820,7 +5821,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5889,7 +5890,7 @@
         <xdr:cNvPr id="57" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,7 +5959,7 @@
         <xdr:cNvPr id="58" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6027,7 +6028,7 @@
         <xdr:cNvPr id="59" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6096,7 +6097,7 @@
         <xdr:cNvPr id="60" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6165,7 +6166,7 @@
         <xdr:cNvPr id="61" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6234,7 +6235,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6303,7 +6304,7 @@
         <xdr:cNvPr id="63" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6372,7 +6373,7 @@
         <xdr:cNvPr id="64" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6441,7 +6442,7 @@
         <xdr:cNvPr id="65" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6510,7 +6511,7 @@
         <xdr:cNvPr id="66" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6579,7 +6580,7 @@
         <xdr:cNvPr id="67" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6648,7 +6649,7 @@
         <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6717,7 +6718,7 @@
         <xdr:cNvPr id="69" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6786,7 +6787,7 @@
         <xdr:cNvPr id="70" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6855,7 +6856,7 @@
         <xdr:cNvPr id="71" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6924,7 +6925,7 @@
         <xdr:cNvPr id="72" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6993,7 +6994,7 @@
         <xdr:cNvPr id="73" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7062,7 +7063,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7131,7 +7132,7 @@
         <xdr:cNvPr id="75" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7200,7 +7201,7 @@
         <xdr:cNvPr id="76" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7269,7 +7270,7 @@
         <xdr:cNvPr id="77" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7338,7 +7339,7 @@
         <xdr:cNvPr id="78" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7407,7 +7408,7 @@
         <xdr:cNvPr id="79" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7476,7 +7477,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7545,7 +7546,7 @@
         <xdr:cNvPr id="81" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7614,7 +7615,7 @@
         <xdr:cNvPr id="82" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7683,7 +7684,7 @@
         <xdr:cNvPr id="83" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7752,7 +7753,7 @@
         <xdr:cNvPr id="84" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7821,7 +7822,7 @@
         <xdr:cNvPr id="85" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8135,7 +8136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8178,277 +8179,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="213" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="213"/>
-      <c r="T1" s="213"/>
-      <c r="U1" s="213"/>
-      <c r="V1" s="213"/>
-      <c r="W1" s="213"/>
-      <c r="X1" s="213"/>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
-      <c r="AG1" s="213"/>
-      <c r="AH1" s="213"/>
-      <c r="AI1" s="213"/>
-      <c r="AJ1" s="213"/>
-      <c r="AK1" s="213"/>
-      <c r="AL1" s="213"/>
-      <c r="AM1" s="213"/>
-      <c r="AN1" s="213"/>
-      <c r="AO1" s="213"/>
+      <c r="B1" s="219" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="219"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="219"/>
+      <c r="AK1" s="219"/>
+      <c r="AL1" s="219"/>
+      <c r="AM1" s="219"/>
+      <c r="AN1" s="219"/>
+      <c r="AO1" s="219"/>
       <c r="AP1" s="62"/>
       <c r="AQ1" s="62"/>
       <c r="AR1" s="62"/>
     </row>
     <row r="2" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="214"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="214"/>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="214"/>
-      <c r="AK2" s="214"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="214"/>
-      <c r="AN2" s="214"/>
-      <c r="AO2" s="214"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="220"/>
+      <c r="AG2" s="220"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="220"/>
+      <c r="AJ2" s="220"/>
+      <c r="AK2" s="220"/>
+      <c r="AL2" s="220"/>
+      <c r="AM2" s="220"/>
+      <c r="AN2" s="220"/>
+      <c r="AO2" s="220"/>
       <c r="AP2" s="62"/>
       <c r="AQ2" s="62"/>
       <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="223" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="217" t="s">
+      <c r="C3" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="218" t="s">
+      <c r="D3" s="210" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="210" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="224" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="218" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="218" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="220" t="s">
+      <c r="G3" s="224" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="220" t="s">
+      <c r="H3" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="221" t="s">
+      <c r="I3" s="229" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="225" t="s">
+      <c r="J3" s="230"/>
+      <c r="K3" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="226"/>
-      <c r="K3" s="220" t="s">
+      <c r="L3" s="227" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="228"/>
+      <c r="N3" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="223" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="224"/>
-      <c r="N3" s="223" t="s">
+      <c r="O3" s="228"/>
+      <c r="P3" s="227" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="224"/>
-      <c r="P3" s="223" t="s">
+      <c r="Q3" s="228"/>
+      <c r="R3" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="224"/>
-      <c r="R3" s="229" t="s">
+      <c r="S3" s="234" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="230" t="s">
+      <c r="T3" s="235"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="231"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="212" t="s">
+      <c r="W3" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="212" t="s">
+      <c r="X3" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="X3" s="212" t="s">
+      <c r="Y3" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="Y3" s="212" t="s">
+      <c r="Z3" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="Z3" s="233" t="s">
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="216"/>
+      <c r="AF3" s="92" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG3" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH3" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI3" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK3" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL3" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="234"/>
-      <c r="AD3" s="234"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG3" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH3" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI3" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK3" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" s="236" t="s">
+      <c r="AM3" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" s="236" t="s">
+      <c r="AN3" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="AN3" s="236" t="s">
+      <c r="AO3" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="AO3" s="236" t="s">
+      <c r="AP3" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="AP3" s="233" t="s">
+      <c r="AQ3" s="215"/>
+      <c r="AR3" s="216"/>
+      <c r="AS3" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="235"/>
-      <c r="AS3" s="233" t="s">
+      <c r="AT3" s="215"/>
+      <c r="AU3" s="216"/>
+    </row>
+    <row r="4" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A4" s="222"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="232"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="AT3" s="234"/>
-      <c r="AU3" s="235"/>
-    </row>
-    <row r="4" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="216"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="65" t="s">
+      <c r="M4" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="N4" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="O4" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="P4" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" s="233"/>
+      <c r="S4" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="229"/>
-      <c r="S4" s="92" t="s">
+      <c r="T4" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="92" t="s">
+      <c r="U4" s="92" t="s">
         <v>100</v>
-      </c>
-      <c r="U4" s="92" t="s">
-        <v>101</v>
       </c>
       <c r="V4" s="212"/>
       <c r="W4" s="212"/>
       <c r="X4" s="212"/>
       <c r="Y4" s="212"/>
       <c r="Z4" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="AA4" s="67" t="s">
+      <c r="AB4" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="AB4" s="67" t="s">
+      <c r="AC4" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="AC4" s="67" t="s">
+      <c r="AD4" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="AD4" s="67" t="s">
+      <c r="AE4" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="AE4" s="67" t="s">
-        <v>107</v>
-      </c>
       <c r="AF4" s="92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG4" s="92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH4" s="94">
         <v>0.08</v>
@@ -8457,171 +8458,171 @@
         <v>0.09</v>
       </c>
       <c r="AJ4" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK4" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL4" s="213"/>
+      <c r="AM4" s="213"/>
+      <c r="AN4" s="213"/>
+      <c r="AO4" s="213"/>
+      <c r="AP4" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="AK4" s="92" t="s">
+      <c r="AQ4" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR4" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS4" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="AL4" s="236"/>
-      <c r="AM4" s="236"/>
-      <c r="AN4" s="236"/>
-      <c r="AO4" s="236"/>
-      <c r="AP4" s="66" t="s">
+      <c r="AT4" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="AQ4" s="66" t="s">
+      <c r="AU4" s="66" t="s">
         <v>138</v>
-      </c>
-      <c r="AR4" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS4" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT4" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU4" s="66" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:47" s="64" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A5" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="70" t="s">
+      <c r="G5" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="I5" s="217" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="210" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="211"/>
-      <c r="K5" s="70" t="s">
+      <c r="L5" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="M5" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="N5" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="Q5" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" s="70" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="70" t="s">
+      <c r="R5" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="Q5" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" s="70" t="s">
+      <c r="S5" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="V5" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="S5" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="T5" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="U5" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="V5" s="70" t="s">
+      <c r="W5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="W5" s="70" t="s">
+      <c r="X5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="70" t="s">
+      <c r="Y5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="Y5" s="70" t="s">
+      <c r="Z5" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="Z5" s="71" t="s">
+      <c r="AA5" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="AA5" s="71" t="s">
+      <c r="AB5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI5" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ5" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI5" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ5" s="71" t="s">
+      <c r="AK5" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="AK5" s="71" t="s">
+      <c r="AL5" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="AL5" s="71" t="s">
+      <c r="AM5" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="AM5" s="71" t="s">
+      <c r="AN5" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="AN5" s="71" t="s">
+      <c r="AO5" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="AO5" s="71" t="s">
+      <c r="AP5" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="AP5" s="71" t="s">
+      <c r="AQ5" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR5" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS5" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="AQ5" s="71" t="s">
+      <c r="AT5" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="AR5" s="71" t="s">
+      <c r="AU5" s="71" t="s">
         <v>134</v>
-      </c>
-      <c r="AS5" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT5" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU5" s="71" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:47" s="102" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -11149,18 +11150,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="B1:AO2"/>
@@ -11177,6 +11166,18 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11189,8 +11190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11198,8 +11199,8 @@
     <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="125" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
@@ -11214,30 +11215,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="239"/>
+      <c r="O1" s="239"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
       <c r="D2" s="196" t="s">
         <v>2</v>
       </c>
@@ -11247,13 +11248,13 @@
       </c>
       <c r="G2" s="198"/>
       <c r="H2" s="199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="198"/>
-      <c r="J2" s="256" t="s">
+      <c r="J2" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="256"/>
+      <c r="K2" s="241"/>
       <c r="L2" s="200"/>
       <c r="M2" s="201"/>
       <c r="N2" s="201" t="s">
@@ -11286,10 +11287,10 @@
     </row>
     <row r="4" spans="1:15" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A4" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="176" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" s="176" t="s">
-        <v>146</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -11578,7 +11579,7 @@
         <v>35</v>
       </c>
       <c r="M16" s="128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>36</v>
@@ -12101,16 +12102,16 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="257" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="257"/>
-      <c r="C44" s="257"/>
-      <c r="D44" s="257"/>
-      <c r="E44" s="257"/>
-      <c r="F44" s="257"/>
-      <c r="G44" s="257"/>
-      <c r="H44" s="257"/>
+      <c r="A44" s="244" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="244"/>
+      <c r="C44" s="244"/>
+      <c r="D44" s="244"/>
+      <c r="E44" s="244"/>
+      <c r="F44" s="244"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="244"/>
       <c r="I44" s="19"/>
       <c r="J44" s="28"/>
       <c r="K44" s="19"/>
@@ -12120,16 +12121,16 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="257" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="257"/>
-      <c r="C45" s="257"/>
-      <c r="D45" s="257"/>
-      <c r="E45" s="257"/>
-      <c r="F45" s="257"/>
-      <c r="G45" s="257"/>
-      <c r="H45" s="257"/>
+      <c r="A45" s="244" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="244"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="244"/>
+      <c r="F45" s="244"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
       <c r="I45" s="19"/>
       <c r="J45" s="28"/>
       <c r="K45" s="19"/>
@@ -12139,16 +12140,16 @@
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="257" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="257"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="257"/>
-      <c r="E46" s="257"/>
-      <c r="F46" s="257"/>
-      <c r="G46" s="257"/>
-      <c r="H46" s="257"/>
+      <c r="A46" s="244" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="244"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
       <c r="I46" s="19"/>
       <c r="J46" s="28"/>
       <c r="K46" s="19"/>
@@ -12160,14 +12161,14 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="237" t="s">
+      <c r="C47" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="242"/>
-      <c r="E47" s="242"/>
-      <c r="F47" s="242"/>
-      <c r="G47" s="242"/>
-      <c r="H47" s="238"/>
+      <c r="D47" s="246"/>
+      <c r="E47" s="246"/>
+      <c r="F47" s="246"/>
+      <c r="G47" s="246"/>
+      <c r="H47" s="247"/>
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
       <c r="K47" s="32"/>
@@ -12181,10 +12182,10 @@
       <c r="B48" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="245" t="s">
+      <c r="C48" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="246"/>
+      <c r="D48" s="249"/>
       <c r="E48" s="36" t="s">
         <v>40</v>
       </c>
@@ -12216,8 +12217,8 @@
         <v>1</v>
       </c>
       <c r="B49" s="182"/>
-      <c r="C49" s="258"/>
-      <c r="D49" s="259"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="251"/>
       <c r="E49" s="172"/>
       <c r="F49" s="173"/>
       <c r="G49" s="183"/>
@@ -12235,8 +12236,8 @@
         <v>2</v>
       </c>
       <c r="B50" s="182"/>
-      <c r="C50" s="258"/>
-      <c r="D50" s="259"/>
+      <c r="C50" s="250"/>
+      <c r="D50" s="251"/>
       <c r="E50" s="172"/>
       <c r="F50" s="173"/>
       <c r="G50" s="183"/>
@@ -12254,8 +12255,8 @@
         <v>3</v>
       </c>
       <c r="B51" s="182"/>
-      <c r="C51" s="258"/>
-      <c r="D51" s="259"/>
+      <c r="C51" s="250"/>
+      <c r="D51" s="251"/>
       <c r="E51" s="172"/>
       <c r="F51" s="173"/>
       <c r="G51" s="183"/>
@@ -12273,8 +12274,8 @@
         <v>4</v>
       </c>
       <c r="B52" s="182"/>
-      <c r="C52" s="258"/>
-      <c r="D52" s="259"/>
+      <c r="C52" s="250"/>
+      <c r="D52" s="251"/>
       <c r="E52" s="172"/>
       <c r="F52" s="173"/>
       <c r="G52" s="183"/>
@@ -12292,8 +12293,8 @@
         <v>5</v>
       </c>
       <c r="B53" s="182"/>
-      <c r="C53" s="258"/>
-      <c r="D53" s="259"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="251"/>
       <c r="E53" s="172"/>
       <c r="F53" s="172"/>
       <c r="G53" s="172"/>
@@ -12311,8 +12312,8 @@
         <v>6</v>
       </c>
       <c r="B54" s="182"/>
-      <c r="C54" s="258"/>
-      <c r="D54" s="259"/>
+      <c r="C54" s="250"/>
+      <c r="D54" s="251"/>
       <c r="E54" s="172"/>
       <c r="F54" s="173"/>
       <c r="G54" s="184"/>
@@ -12328,14 +12329,14 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="239" t="s">
+      <c r="C55" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="239"/>
-      <c r="E55" s="239"/>
-      <c r="F55" s="251"/>
-      <c r="G55" s="251"/>
-      <c r="H55" s="239"/>
+      <c r="D55" s="242"/>
+      <c r="E55" s="242"/>
+      <c r="F55" s="243"/>
+      <c r="G55" s="243"/>
+      <c r="H55" s="242"/>
       <c r="I55" s="32"/>
       <c r="J55" s="161"/>
       <c r="K55" s="32"/>
@@ -12351,10 +12352,10 @@
       <c r="B56" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="245" t="s">
+      <c r="C56" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="246"/>
+      <c r="D56" s="249"/>
       <c r="E56" s="36" t="s">
         <v>47</v>
       </c>
@@ -12388,8 +12389,8 @@
         <v>1</v>
       </c>
       <c r="B57" s="160"/>
-      <c r="C57" s="249"/>
-      <c r="D57" s="250"/>
+      <c r="C57" s="254"/>
+      <c r="D57" s="255"/>
       <c r="E57" s="194"/>
       <c r="F57" s="194"/>
       <c r="G57" s="19"/>
@@ -12407,8 +12408,8 @@
         <v>2</v>
       </c>
       <c r="B58" s="205"/>
-      <c r="C58" s="249"/>
-      <c r="D58" s="250"/>
+      <c r="C58" s="254"/>
+      <c r="D58" s="255"/>
       <c r="E58" s="206"/>
       <c r="F58" s="206"/>
       <c r="G58" s="168"/>
@@ -12424,14 +12425,14 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="157"/>
-      <c r="C59" s="239" t="s">
+      <c r="C59" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="239"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="251"/>
-      <c r="G59" s="251"/>
-      <c r="H59" s="239"/>
+      <c r="D59" s="242"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="243"/>
+      <c r="G59" s="243"/>
+      <c r="H59" s="242"/>
       <c r="I59" s="32"/>
       <c r="J59" s="161"/>
       <c r="K59" s="32"/>
@@ -12447,10 +12448,10 @@
       <c r="B60" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="245" t="s">
+      <c r="C60" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="246"/>
+      <c r="D60" s="249"/>
       <c r="E60" s="36" t="s">
         <v>47</v>
       </c>
@@ -12484,10 +12485,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="160"/>
-      <c r="C61" s="243" t="s">
+      <c r="C61" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="244"/>
+      <c r="D61" s="253"/>
       <c r="E61" s="46"/>
       <c r="F61" s="45"/>
       <c r="G61" s="19" t="s">
@@ -12507,10 +12508,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="160"/>
-      <c r="C62" s="243" t="s">
+      <c r="C62" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="244"/>
+      <c r="D62" s="253"/>
       <c r="E62" s="46" t="s">
         <v>54</v>
       </c>
@@ -12532,10 +12533,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="160"/>
-      <c r="C63" s="243" t="s">
+      <c r="C63" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="244"/>
+      <c r="D63" s="253"/>
       <c r="E63" s="46" t="s">
         <v>56</v>
       </c>
@@ -12557,10 +12558,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="160"/>
-      <c r="C64" s="243" t="s">
+      <c r="C64" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="244"/>
+      <c r="D64" s="253"/>
       <c r="E64" s="46" t="s">
         <v>57</v>
       </c>
@@ -12582,14 +12583,14 @@
         <v>5</v>
       </c>
       <c r="B65" s="160"/>
-      <c r="C65" s="243" t="s">
+      <c r="C65" s="252" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="244"/>
+      <c r="D65" s="253"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H65" s="47"/>
       <c r="I65" s="48"/>
@@ -12605,10 +12606,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="160"/>
-      <c r="C66" s="243" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="244"/>
+      <c r="C66" s="252" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="253"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
       <c r="G66" s="19" t="s">
@@ -12628,10 +12629,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="160"/>
-      <c r="C67" s="243" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="244"/>
+      <c r="C67" s="252" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="253"/>
       <c r="E67" s="46"/>
       <c r="F67" s="45"/>
       <c r="G67" s="19" t="s">
@@ -12651,10 +12652,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="160"/>
-      <c r="C68" s="243" t="s">
+      <c r="C68" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="244"/>
+      <c r="D68" s="253"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="19" t="s">
@@ -12674,8 +12675,8 @@
         <v>9</v>
       </c>
       <c r="B69" s="160"/>
-      <c r="C69" s="243"/>
-      <c r="D69" s="244"/>
+      <c r="C69" s="252"/>
+      <c r="D69" s="253"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="194"/>
@@ -12691,14 +12692,14 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="237" t="s">
+      <c r="C70" s="245" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="242"/>
-      <c r="E70" s="242"/>
-      <c r="F70" s="242"/>
-      <c r="G70" s="242"/>
-      <c r="H70" s="242"/>
+      <c r="D70" s="246"/>
+      <c r="E70" s="246"/>
+      <c r="F70" s="246"/>
+      <c r="G70" s="246"/>
+      <c r="H70" s="246"/>
       <c r="I70" s="31"/>
       <c r="J70" s="31"/>
       <c r="K70" s="32"/>
@@ -12712,16 +12713,16 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="157"/>
-      <c r="C71" s="237" t="s">
+      <c r="C71" s="245" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="242"/>
-      <c r="E71" s="242"/>
-      <c r="F71" s="242"/>
-      <c r="G71" s="242"/>
-      <c r="H71" s="242"/>
-      <c r="I71" s="242"/>
-      <c r="J71" s="238"/>
+      <c r="D71" s="246"/>
+      <c r="E71" s="246"/>
+      <c r="F71" s="246"/>
+      <c r="G71" s="246"/>
+      <c r="H71" s="246"/>
+      <c r="I71" s="246"/>
+      <c r="J71" s="247"/>
       <c r="K71" s="32"/>
       <c r="L71" s="33" t="s">
         <v>45</v>
@@ -12735,10 +12736,10 @@
       <c r="B72" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="245" t="s">
+      <c r="C72" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="246"/>
+      <c r="D72" s="249"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
@@ -12768,10 +12769,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="160"/>
-      <c r="C73" s="247" t="s">
+      <c r="C73" s="258" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="248"/>
+      <c r="D73" s="259"/>
       <c r="E73" s="18"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
@@ -12791,10 +12792,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="160"/>
-      <c r="C74" s="247" t="s">
+      <c r="C74" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="248"/>
+      <c r="D74" s="259"/>
       <c r="E74" s="18"/>
       <c r="F74" s="19"/>
       <c r="G74" s="18" t="s">
@@ -12812,17 +12813,17 @@
     <row r="75" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="237" t="s">
+      <c r="C75" s="245" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="238"/>
+      <c r="D75" s="247"/>
       <c r="E75" s="157"/>
-      <c r="F75" s="239" t="s">
+      <c r="F75" s="242" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="239"/>
-      <c r="H75" s="239"/>
-      <c r="I75" s="239"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="242"/>
       <c r="J75" s="54"/>
       <c r="K75" s="32"/>
       <c r="L75" s="33" t="s">
@@ -12835,17 +12836,17 @@
     <row r="76" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="157"/>
-      <c r="C76" s="240" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="241"/>
+      <c r="C76" s="256" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="257"/>
       <c r="E76" s="158"/>
-      <c r="F76" s="237" t="s">
+      <c r="F76" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="242"/>
-      <c r="H76" s="242"/>
-      <c r="I76" s="242"/>
+      <c r="G76" s="246"/>
+      <c r="H76" s="246"/>
+      <c r="I76" s="246"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
       <c r="L76" s="55" t="s">
@@ -12857,6 +12858,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:K2"/>
@@ -12872,29 +12896,6 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Support/Sunac2019/Data/门窗算量表格模板.xlsx
+++ b/Support/Sunac2019/Data/门窗算量表格模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Support\Sunac2019\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27609FB4-505C-4990-995C-D4175A55E380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -19,22 +25,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +622,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1260,7 +1261,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1748,9 +1749,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,48 +1873,36 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1956,6 +1942,63 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1971,71 +2014,26 @@
     <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="6"/>
-    <cellStyle name="常规 12" xfId="2"/>
-    <cellStyle name="常规 2_成本" xfId="8"/>
-    <cellStyle name="常规 4 2 3" xfId="5"/>
-    <cellStyle name="常规 4 2 4" xfId="4"/>
-    <cellStyle name="常规 4 4" xfId="3"/>
-    <cellStyle name="常规_参考工程量清单" xfId="7"/>
+    <cellStyle name="常规 11" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2_成本" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 4 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 4 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 4 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规_参考工程量清单" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2070,7 +2068,7 @@
         <xdr:cNvPr id="2" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056E7DFC-97A2-4F8C-B5B3-937E2AEB8354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2142,7 @@
         <xdr:cNvPr id="3" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD545937-26AF-44F5-8C43-9CDB08B04B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2216,7 @@
         <xdr:cNvPr id="4" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BF13FE-3748-49F2-B74A-1D0F72FD2BDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2290,7 @@
         <xdr:cNvPr id="5" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D93EA-30AB-48DC-A7BA-66B681F68C45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2364,7 @@
         <xdr:cNvPr id="6" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01A1B9-18EE-4FA0-B56D-01C1EE688332}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2438,7 @@
         <xdr:cNvPr id="7" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A6AC8B-97B2-46CD-BE94-8046272215B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2507,7 @@
         <xdr:cNvPr id="8" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB00F07-9E1B-46F0-8BFF-C19A9DD07AB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2576,7 @@
         <xdr:cNvPr id="9" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0C04BA-8B46-42D8-9ED7-4DF306E9D54A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2645,7 @@
         <xdr:cNvPr id="10" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6808311-41A6-43CB-BB6E-C2FE97B663C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2716,7 +2714,7 @@
         <xdr:cNvPr id="11" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA2051D-5461-4773-8950-0F0B4AAFE044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2783,7 @@
         <xdr:cNvPr id="12" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A0A58-131C-44C8-A326-C946A0627F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2854,7 +2852,7 @@
         <xdr:cNvPr id="13" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFE2D51-D747-4AAB-88BF-AE934141D045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2921,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D19AB3-E4EB-4213-9C92-BB021D5F5F03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +2990,7 @@
         <xdr:cNvPr id="15" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39256756-6960-4E6C-8AAC-18DFAB8B67A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3059,7 @@
         <xdr:cNvPr id="16" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F5BDCA-8E73-41F8-B754-B7E5F5044A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,7 +3128,7 @@
         <xdr:cNvPr id="17" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E191A14B-CBB7-4FAC-85D6-BDD8B7F16ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3197,7 @@
         <xdr:cNvPr id="18" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575DC458-C05A-4512-9A50-FDC25B47AE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3266,7 @@
         <xdr:cNvPr id="19" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B64ECB-6C38-4306-B420-D0F6CFED533F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3337,7 +3335,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71BE643-4AC7-48AB-95F2-FCD0E7575E30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3404,7 @@
         <xdr:cNvPr id="21" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D2040-4B93-4E04-A85C-E8FF44B82264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,7 +3473,7 @@
         <xdr:cNvPr id="22" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B35528-501C-4087-B60F-C4F4F231C11C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3542,7 @@
         <xdr:cNvPr id="23" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7BB651-822B-48C4-8DC6-E1179C8053FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3611,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7101563A-0B63-4C7A-A901-FE12B33B3C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3682,7 +3680,7 @@
         <xdr:cNvPr id="25" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE61DFA6-5608-4727-8AFC-166F134E8846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3749,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C34900-73D0-4C93-BE33-C7B592551D00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3820,7 +3818,7 @@
         <xdr:cNvPr id="27" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99978E34-E19D-4B82-8BC3-C6561DF85A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3887,7 @@
         <xdr:cNvPr id="28" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3B80C-FD7E-41C2-8741-B01CB9AA0E92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3958,7 +3956,7 @@
         <xdr:cNvPr id="29" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501554D4-DADC-406A-8B8E-822AF96391EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,7 +4025,7 @@
         <xdr:cNvPr id="30" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E74EF0B-F9BF-42C8-9D88-498F4339C4DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,7 +4094,7 @@
         <xdr:cNvPr id="31" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496B920C-59E8-4050-AB99-6EAE080030C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4165,7 +4163,7 @@
         <xdr:cNvPr id="32" name="图片 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB9E06D-539F-4A1D-8C7D-278A47A860A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4234,7 +4232,7 @@
         <xdr:cNvPr id="33" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F68237-A6FF-4C08-9610-34B67C477BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4301,7 @@
         <xdr:cNvPr id="34" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F006F-B9B9-4500-A55C-CB0933C92F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4370,7 @@
         <xdr:cNvPr id="35" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A5E84B-3C3B-4857-A07D-E7E5FFFDF1AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4439,7 @@
         <xdr:cNvPr id="36" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3928AC-C880-4C34-A150-7BD49B2467B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,7 +4508,7 @@
         <xdr:cNvPr id="37" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E020AA60-9C40-440A-A630-D639CB5EEF35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4579,7 +4577,7 @@
         <xdr:cNvPr id="38" name="图片 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEBAC48-0CF0-40FA-B5AE-4B2292EEED22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,7 +4646,7 @@
         <xdr:cNvPr id="39" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA4090-41B0-40E5-9C76-0F5DB9A5CD54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4717,7 +4715,7 @@
         <xdr:cNvPr id="40" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35992E37-FF99-4275-9EDE-1560B7131904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4784,7 @@
         <xdr:cNvPr id="41" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362DAA56-7CC3-4AE3-A19C-9FA188771081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4855,7 +4853,7 @@
         <xdr:cNvPr id="42" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2BE53FF-7A17-4ECF-A484-54B6166EC80C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4924,7 +4922,7 @@
         <xdr:cNvPr id="43" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BBB3E9-D4FF-41B8-8F42-ACD76A4C96FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4993,7 +4991,7 @@
         <xdr:cNvPr id="44" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1395F89D-7F82-45DB-A952-E3C2B40DE020}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5062,7 +5060,7 @@
         <xdr:cNvPr id="45" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E13BAD1-97BA-4D1C-BD7C-EF25538C57EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5131,7 +5129,7 @@
         <xdr:cNvPr id="46" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA94FD7-59CB-4D5B-8BA9-D128009181F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5200,7 +5198,7 @@
         <xdr:cNvPr id="47" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{798DD307-BE34-4642-BCFC-970C6ADBED38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5269,7 +5267,7 @@
         <xdr:cNvPr id="48" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66497E25-71E7-4565-978E-A46CDD901248}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5338,7 +5336,7 @@
         <xdr:cNvPr id="49" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91032B-70F4-44CA-B3E1-0CBB714420F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5407,7 +5405,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD3C97C-C63E-429F-8B65-E1CDB475E881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5476,7 +5474,7 @@
         <xdr:cNvPr id="51" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286E29B1-E328-48C8-AB02-B6267E92EA94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5545,7 +5543,7 @@
         <xdr:cNvPr id="52" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B38B4F8-63D1-4C89-9615-D8D2B7DE09D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5614,7 +5612,7 @@
         <xdr:cNvPr id="53" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22313ED8-50C2-4DED-AE65-74ABCCEC29DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5683,7 +5681,7 @@
         <xdr:cNvPr id="54" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EFBC15-F540-43D2-A941-C53A87F927DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5752,7 +5750,7 @@
         <xdr:cNvPr id="55" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FCAA4-A1B8-4973-8BDC-11A174017F54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5821,7 +5819,7 @@
         <xdr:cNvPr id="56" name="图片 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8674E2-2C70-425F-8A0C-3F91138C2FA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5890,7 +5888,7 @@
         <xdr:cNvPr id="57" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8435591D-2160-4874-9E53-73A616EDF887}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5959,7 +5957,7 @@
         <xdr:cNvPr id="58" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5CBBB4-E4A6-4293-A274-E01FB0A9D47E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6028,7 +6026,7 @@
         <xdr:cNvPr id="59" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D2A69F-0D21-4E9A-86D8-98BEE1EDD269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6097,7 +6095,7 @@
         <xdr:cNvPr id="60" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAC6AF2-2379-4640-BEF8-9E9C8DB25EDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6166,7 +6164,7 @@
         <xdr:cNvPr id="61" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1344DBA-C1C2-4FB6-91AF-8F68BEAE9702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6235,7 +6233,7 @@
         <xdr:cNvPr id="62" name="图片 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F561C-EDF9-4B16-A9EB-EEFE0E7D93E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6304,7 +6302,7 @@
         <xdr:cNvPr id="63" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D3B99-FAD7-442B-B31F-4AC5856BF07A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6373,7 +6371,7 @@
         <xdr:cNvPr id="64" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B637411-37B1-450C-9E91-4FE42205B744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6442,7 +6440,7 @@
         <xdr:cNvPr id="65" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFED5A5C-CF94-481E-BDCE-27327C408EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6511,7 +6509,7 @@
         <xdr:cNvPr id="66" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5D975-1ECF-4429-AC68-B325B6ADE30C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6580,7 +6578,7 @@
         <xdr:cNvPr id="67" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D2BDD1-F169-4C22-A5DF-3364B979ED73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6649,7 +6647,7 @@
         <xdr:cNvPr id="68" name="图片 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5998AC-CBBC-49C7-8A28-84FE39E0D327}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6718,7 +6716,7 @@
         <xdr:cNvPr id="69" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4DAE98-1CBC-4C56-B481-66B079B69362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6787,7 +6785,7 @@
         <xdr:cNvPr id="70" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FFC546-5E5E-4EF6-8D42-AC7474EDF58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6856,7 +6854,7 @@
         <xdr:cNvPr id="71" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92BDCA8-9144-4DB0-A3F1-59987CB75093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6925,7 +6923,7 @@
         <xdr:cNvPr id="72" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727BCE5-3B6B-49E4-A927-CE87E1D36EE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6994,7 +6992,7 @@
         <xdr:cNvPr id="73" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC49CD1-0E49-45FD-A1DE-E574DAB6AA5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7063,7 +7061,7 @@
         <xdr:cNvPr id="74" name="图片 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C1545B-FE0E-49BC-BA71-F76AE8B3F8CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7132,7 +7130,7 @@
         <xdr:cNvPr id="75" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAC15CC-06A9-4964-B902-69C002C7E20A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7201,7 +7199,7 @@
         <xdr:cNvPr id="76" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6FA464-5AA9-4114-A0B6-227F5E9DDFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7270,7 +7268,7 @@
         <xdr:cNvPr id="77" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B3F40-26EB-478C-A055-0409AA0965C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7339,7 +7337,7 @@
         <xdr:cNvPr id="78" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE6FE69-B4F0-44FF-A3E9-7C2EE3319EE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7408,7 +7406,7 @@
         <xdr:cNvPr id="79" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAADDCC6-904D-4D59-84DB-D6123C5D2143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7477,7 +7475,7 @@
         <xdr:cNvPr id="80" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6697E746-AB38-4AE1-8DCD-9A60FBF1BAEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7546,7 +7544,7 @@
         <xdr:cNvPr id="81" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A448D-272E-4526-9D94-7C206E2684C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7615,7 +7613,7 @@
         <xdr:cNvPr id="82" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930C7549-3AE1-4BE2-9B9E-1EB9B43176DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7684,7 +7682,7 @@
         <xdr:cNvPr id="83" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E40663-1315-4E93-833C-1A1A0B976B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7753,7 +7751,7 @@
         <xdr:cNvPr id="84" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D79306F-68E0-4268-A66E-202D216F1941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7822,7 +7820,7 @@
         <xdr:cNvPr id="85" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E671AF4-F393-45CB-BCFB-53D775460EBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8136,14 +8134,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
@@ -8179,169 +8177,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="219"/>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="219"/>
-      <c r="AG1" s="219"/>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="219"/>
-      <c r="AJ1" s="219"/>
-      <c r="AK1" s="219"/>
-      <c r="AL1" s="219"/>
-      <c r="AM1" s="219"/>
-      <c r="AN1" s="219"/>
-      <c r="AO1" s="219"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="212"/>
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="212"/>
+      <c r="AD1" s="212"/>
+      <c r="AE1" s="212"/>
+      <c r="AF1" s="212"/>
+      <c r="AG1" s="212"/>
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="212"/>
+      <c r="AJ1" s="212"/>
+      <c r="AK1" s="212"/>
+      <c r="AL1" s="212"/>
+      <c r="AM1" s="212"/>
+      <c r="AN1" s="212"/>
+      <c r="AO1" s="212"/>
       <c r="AP1" s="62"/>
       <c r="AQ1" s="62"/>
       <c r="AR1" s="62"/>
     </row>
     <row r="2" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="220"/>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="220"/>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="220"/>
-      <c r="AJ2" s="220"/>
-      <c r="AK2" s="220"/>
-      <c r="AL2" s="220"/>
-      <c r="AM2" s="220"/>
-      <c r="AN2" s="220"/>
-      <c r="AO2" s="220"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="213"/>
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="213"/>
+      <c r="AG2" s="213"/>
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="213"/>
+      <c r="AJ2" s="213"/>
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="213"/>
+      <c r="AM2" s="213"/>
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="213"/>
       <c r="AP2" s="62"/>
       <c r="AQ2" s="62"/>
       <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="214" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="210" t="s">
+      <c r="C3" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="210" t="s">
+      <c r="D3" s="217" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="217" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="224" t="s">
+      <c r="F3" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="224" t="s">
+      <c r="G3" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="225" t="s">
+      <c r="H3" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="229" t="s">
+      <c r="I3" s="224" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="230"/>
-      <c r="K3" s="224" t="s">
+      <c r="J3" s="225"/>
+      <c r="K3" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="227" t="s">
+      <c r="L3" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="228"/>
-      <c r="N3" s="227" t="s">
+      <c r="M3" s="223"/>
+      <c r="N3" s="222" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="228"/>
-      <c r="P3" s="227" t="s">
+      <c r="O3" s="223"/>
+      <c r="P3" s="222" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="233" t="s">
+      <c r="Q3" s="223"/>
+      <c r="R3" s="228" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="234" t="s">
+      <c r="S3" s="229" t="s">
         <v>82</v>
       </c>
-      <c r="T3" s="235"/>
-      <c r="U3" s="236"/>
-      <c r="V3" s="212" t="s">
+      <c r="T3" s="230"/>
+      <c r="U3" s="231"/>
+      <c r="V3" s="211" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="212" t="s">
+      <c r="W3" s="211" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="212" t="s">
+      <c r="X3" s="211" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="212" t="s">
+      <c r="Y3" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="214" t="s">
+      <c r="Z3" s="232" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="216"/>
+      <c r="AA3" s="233"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="233"/>
+      <c r="AD3" s="233"/>
+      <c r="AE3" s="234"/>
       <c r="AF3" s="92" t="s">
         <v>107</v>
       </c>
@@ -8360,41 +8358,41 @@
       <c r="AK3" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="AL3" s="213" t="s">
+      <c r="AL3" s="235" t="s">
         <v>88</v>
       </c>
-      <c r="AM3" s="213" t="s">
+      <c r="AM3" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="AN3" s="213" t="s">
+      <c r="AN3" s="235" t="s">
         <v>90</v>
       </c>
-      <c r="AO3" s="213" t="s">
+      <c r="AO3" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="AP3" s="214" t="s">
+      <c r="AP3" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="AQ3" s="215"/>
-      <c r="AR3" s="216"/>
-      <c r="AS3" s="214" t="s">
+      <c r="AQ3" s="233"/>
+      <c r="AR3" s="234"/>
+      <c r="AS3" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="AT3" s="215"/>
-      <c r="AU3" s="216"/>
+      <c r="AT3" s="233"/>
+      <c r="AU3" s="234"/>
     </row>
     <row r="4" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="222"/>
-      <c r="B4" s="223"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="224"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="219"/>
       <c r="L4" s="65" t="s">
         <v>94</v>
       </c>
@@ -8413,7 +8411,7 @@
       <c r="Q4" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="R4" s="233"/>
+      <c r="R4" s="228"/>
       <c r="S4" s="92" t="s">
         <v>98</v>
       </c>
@@ -8423,10 +8421,10 @@
       <c r="U4" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="212"/>
-      <c r="W4" s="212"/>
-      <c r="X4" s="212"/>
-      <c r="Y4" s="212"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="211"/>
+      <c r="X4" s="211"/>
+      <c r="Y4" s="211"/>
       <c r="Z4" s="66" t="s">
         <v>101</v>
       </c>
@@ -8463,10 +8461,10 @@
       <c r="AK4" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="213"/>
-      <c r="AN4" s="213"/>
-      <c r="AO4" s="213"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235"/>
       <c r="AP4" s="66" t="s">
         <v>136</v>
       </c>
@@ -8509,10 +8507,10 @@
       <c r="H5" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="217" t="s">
+      <c r="I5" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="218"/>
+      <c r="J5" s="210"/>
       <c r="K5" s="70" t="s">
         <v>117</v>
       </c>
@@ -11150,6 +11148,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="B1:AO2"/>
@@ -11166,18 +11176,6 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11187,11 +11185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60:H68"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11215,56 +11213,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="239"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="196" t="s">
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="197"/>
-      <c r="F2" s="196" t="s">
+      <c r="E2" s="196"/>
+      <c r="F2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="198" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="198"/>
-      <c r="J2" s="241" t="s">
+      <c r="I2" s="197"/>
+      <c r="J2" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="241"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201" t="s">
+      <c r="K2" s="255"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="202"/>
+      <c r="O2" s="201"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="175"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -11289,20 +11287,20 @@
       <c r="A4" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="175" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="58"/>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="186" t="s">
+      <c r="G4" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="187"/>
-      <c r="I4" s="188"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="187"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -11312,18 +11310,18 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="177"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="185" t="s">
+      <c r="F5" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="186" t="s">
+      <c r="G5" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="188"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="187"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -11333,18 +11331,18 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="177"/>
+      <c r="B6" s="176"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="186" t="s">
+      <c r="G6" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="189"/>
-      <c r="I6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="187"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -11354,18 +11352,18 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="177"/>
+      <c r="B7" s="176"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="185" t="s">
+      <c r="F7" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="186" t="s">
+      <c r="G7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="187"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -11375,18 +11373,18 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="177"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="186" t="s">
+      <c r="G8" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="187"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -11396,18 +11394,18 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="177"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="185" t="s">
+      <c r="F9" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="186" t="s">
+      <c r="G9" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="189"/>
-      <c r="I9" s="187"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="186"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -11417,18 +11415,18 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="177"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="185" t="s">
+      <c r="F10" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="186" t="s">
+      <c r="G10" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="187"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -11438,18 +11436,18 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="177"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="185" t="s">
+      <c r="F11" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="186" t="s">
+      <c r="G11" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="189"/>
-      <c r="I11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="187"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -11459,18 +11457,18 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="177"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="185" t="s">
+      <c r="F12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="186" t="s">
+      <c r="G12" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="189"/>
-      <c r="I12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="187"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -11480,18 +11478,18 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="177"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="185" t="s">
+      <c r="F13" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="186" t="s">
+      <c r="G13" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="189"/>
-      <c r="I13" s="187"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="186"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -11501,18 +11499,18 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="177"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="190" t="s">
+      <c r="F14" s="189" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="186" t="s">
+      <c r="G14" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="191"/>
-      <c r="I14" s="192"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -11522,18 +11520,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="177"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="190" t="s">
+      <c r="F15" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="186" t="s">
+      <c r="G15" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="191"/>
-      <c r="I15" s="193"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="192"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -11545,7 +11543,7 @@
       <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="202" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="164" t="s">
@@ -11592,7 +11590,7 @@
       <c r="A17" s="162">
         <v>1</v>
       </c>
-      <c r="B17" s="165"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="163"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -11611,7 +11609,7 @@
       <c r="A18" s="162">
         <v>2</v>
       </c>
-      <c r="B18" s="165"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="20"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -11630,7 +11628,7 @@
       <c r="A19" s="162">
         <v>3</v>
       </c>
-      <c r="B19" s="165"/>
+      <c r="B19" s="173"/>
       <c r="C19" s="20"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -11649,7 +11647,7 @@
       <c r="A20" s="162">
         <v>4</v>
       </c>
-      <c r="B20" s="165"/>
+      <c r="B20" s="173"/>
       <c r="C20" s="20"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -11668,7 +11666,7 @@
       <c r="A21" s="162">
         <v>5</v>
       </c>
-      <c r="B21" s="165"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="20"/>
       <c r="D21" s="18"/>
       <c r="E21" s="59"/>
@@ -11687,7 +11685,7 @@
       <c r="A22" s="162">
         <v>6</v>
       </c>
-      <c r="B22" s="165"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="20"/>
       <c r="D22" s="18"/>
       <c r="E22" s="59"/>
@@ -11706,7 +11704,7 @@
       <c r="A23" s="162">
         <v>7</v>
       </c>
-      <c r="B23" s="165"/>
+      <c r="B23" s="173"/>
       <c r="C23" s="20"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -11725,7 +11723,7 @@
       <c r="A24" s="162">
         <v>8</v>
       </c>
-      <c r="B24" s="165"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="20"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -11744,7 +11742,7 @@
       <c r="A25" s="162">
         <v>9</v>
       </c>
-      <c r="B25" s="165"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="20"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -11763,7 +11761,7 @@
       <c r="A26" s="162">
         <v>10</v>
       </c>
-      <c r="B26" s="165"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="20"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -11782,7 +11780,7 @@
       <c r="A27" s="162">
         <v>11</v>
       </c>
-      <c r="B27" s="165"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="20"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -11801,7 +11799,7 @@
       <c r="A28" s="162">
         <v>12</v>
       </c>
-      <c r="B28" s="165"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="20"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -11820,7 +11818,7 @@
       <c r="A29" s="162">
         <v>13</v>
       </c>
-      <c r="B29" s="165"/>
+      <c r="B29" s="173"/>
       <c r="C29" s="20"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -11839,7 +11837,7 @@
       <c r="A30" s="162">
         <v>14</v>
       </c>
-      <c r="B30" s="174"/>
+      <c r="B30" s="173"/>
       <c r="C30" s="20"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -11858,7 +11856,7 @@
       <c r="A31" s="162">
         <v>15</v>
       </c>
-      <c r="B31" s="165"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="20"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -11877,121 +11875,121 @@
       <c r="A32" s="162">
         <v>16</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="171"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="170"/>
       <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="162">
         <v>17</v>
       </c>
-      <c r="B33" s="165"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="171"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="169"/>
+      <c r="N33" s="170"/>
       <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="162">
         <v>18</v>
       </c>
-      <c r="B34" s="165"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="171"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="169"/>
+      <c r="M34" s="169"/>
+      <c r="N34" s="170"/>
       <c r="O34" s="23"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="162">
         <v>19</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="C35" s="166"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="168"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="171"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="170"/>
       <c r="O35" s="23"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="162">
         <v>20</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
-      <c r="N36" s="171"/>
+      <c r="B36" s="173"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="169"/>
+      <c r="M36" s="169"/>
+      <c r="N36" s="170"/>
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="162">
         <v>21</v>
       </c>
-      <c r="B37" s="165"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="171"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="170"/>
       <c r="O37" s="23"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="162">
         <v>22</v>
       </c>
-      <c r="B38" s="165"/>
+      <c r="B38" s="173"/>
       <c r="C38" s="20"/>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -12010,7 +12008,7 @@
       <c r="A39" s="162">
         <v>23</v>
       </c>
-      <c r="B39" s="165"/>
+      <c r="B39" s="173"/>
       <c r="C39" s="20"/>
       <c r="D39" s="24"/>
       <c r="E39" s="18"/>
@@ -12029,7 +12027,7 @@
       <c r="A40" s="162">
         <v>24</v>
       </c>
-      <c r="B40" s="165"/>
+      <c r="B40" s="173"/>
       <c r="C40" s="20"/>
       <c r="D40" s="24"/>
       <c r="E40" s="18"/>
@@ -12048,7 +12046,7 @@
       <c r="A41" s="162">
         <v>25</v>
       </c>
-      <c r="B41" s="165"/>
+      <c r="B41" s="173"/>
       <c r="C41" s="20"/>
       <c r="D41" s="24"/>
       <c r="E41" s="18"/>
@@ -12067,7 +12065,7 @@
       <c r="A42" s="162">
         <v>26</v>
       </c>
-      <c r="B42" s="165"/>
+      <c r="B42" s="173"/>
       <c r="C42" s="20"/>
       <c r="D42" s="24"/>
       <c r="E42" s="18"/>
@@ -12086,7 +12084,7 @@
       <c r="A43" s="162">
         <v>27</v>
       </c>
-      <c r="B43" s="165"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="20"/>
       <c r="D43" s="26"/>
       <c r="E43" s="18"/>
@@ -12102,16 +12100,16 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="244" t="s">
+      <c r="A44" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="244"/>
-      <c r="C44" s="244"/>
-      <c r="D44" s="244"/>
-      <c r="E44" s="244"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="244"/>
+      <c r="B44" s="256"/>
+      <c r="C44" s="256"/>
+      <c r="D44" s="256"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="256"/>
       <c r="I44" s="19"/>
       <c r="J44" s="28"/>
       <c r="K44" s="19"/>
@@ -12121,16 +12119,16 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="244" t="s">
+      <c r="A45" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="244"/>
-      <c r="C45" s="244"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
+      <c r="B45" s="256"/>
+      <c r="C45" s="256"/>
+      <c r="D45" s="256"/>
+      <c r="E45" s="256"/>
+      <c r="F45" s="256"/>
+      <c r="G45" s="256"/>
+      <c r="H45" s="256"/>
       <c r="I45" s="19"/>
       <c r="J45" s="28"/>
       <c r="K45" s="19"/>
@@ -12140,16 +12138,16 @@
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="244" t="s">
+      <c r="A46" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="244"/>
-      <c r="C46" s="244"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="244"/>
-      <c r="F46" s="244"/>
-      <c r="G46" s="244"/>
-      <c r="H46" s="244"/>
+      <c r="B46" s="256"/>
+      <c r="C46" s="256"/>
+      <c r="D46" s="256"/>
+      <c r="E46" s="256"/>
+      <c r="F46" s="256"/>
+      <c r="G46" s="256"/>
+      <c r="H46" s="256"/>
       <c r="I46" s="19"/>
       <c r="J46" s="28"/>
       <c r="K46" s="19"/>
@@ -12161,19 +12159,19 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="245" t="s">
+      <c r="C47" s="236" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="246"/>
-      <c r="E47" s="246"/>
-      <c r="F47" s="246"/>
-      <c r="G47" s="246"/>
-      <c r="H47" s="247"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="241"/>
+      <c r="F47" s="241"/>
+      <c r="G47" s="241"/>
+      <c r="H47" s="237"/>
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
       <c r="K47" s="32"/>
-      <c r="L47" s="179"/>
-      <c r="M47" s="180"/>
+      <c r="L47" s="178"/>
+      <c r="M47" s="179"/>
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
     </row>
@@ -12182,10 +12180,10 @@
       <c r="B48" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="248" t="s">
+      <c r="C48" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="249"/>
+      <c r="D48" s="245"/>
       <c r="E48" s="36" t="s">
         <v>40</v>
       </c>
@@ -12209,25 +12207,25 @@
         <v>35</v>
       </c>
       <c r="M48" s="38"/>
-      <c r="N48" s="178"/>
+      <c r="N48" s="177"/>
       <c r="O48" s="37"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="162">
         <v>1</v>
       </c>
-      <c r="B49" s="182"/>
-      <c r="C49" s="250"/>
-      <c r="D49" s="251"/>
-      <c r="E49" s="172"/>
-      <c r="F49" s="173"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="173"/>
-      <c r="L49" s="181"/>
-      <c r="M49" s="181"/>
+      <c r="B49" s="181"/>
+      <c r="C49" s="257"/>
+      <c r="D49" s="258"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="182"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="180"/>
+      <c r="M49" s="180"/>
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
     </row>
@@ -12235,16 +12233,16 @@
       <c r="A50" s="162">
         <v>2</v>
       </c>
-      <c r="B50" s="182"/>
-      <c r="C50" s="250"/>
-      <c r="D50" s="251"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="173"/>
-      <c r="K50" s="173"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="172"/>
       <c r="L50" s="40"/>
       <c r="M50" s="121"/>
       <c r="N50" s="41"/>
@@ -12254,16 +12252,16 @@
       <c r="A51" s="162">
         <v>3</v>
       </c>
-      <c r="B51" s="182"/>
-      <c r="C51" s="250"/>
-      <c r="D51" s="251"/>
-      <c r="E51" s="172"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="173"/>
-      <c r="K51" s="173"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="257"/>
+      <c r="D51" s="258"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="182"/>
+      <c r="H51" s="182"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="172"/>
+      <c r="K51" s="172"/>
       <c r="L51" s="21"/>
       <c r="M51" s="119"/>
       <c r="N51" s="42"/>
@@ -12273,16 +12271,16 @@
       <c r="A52" s="162">
         <v>4</v>
       </c>
-      <c r="B52" s="182"/>
-      <c r="C52" s="250"/>
-      <c r="D52" s="251"/>
-      <c r="E52" s="172"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="173"/>
-      <c r="J52" s="173"/>
-      <c r="K52" s="173"/>
+      <c r="B52" s="181"/>
+      <c r="C52" s="257"/>
+      <c r="D52" s="258"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="182"/>
+      <c r="H52" s="182"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="172"/>
+      <c r="K52" s="172"/>
       <c r="L52" s="29"/>
       <c r="M52" s="126"/>
       <c r="N52" s="60"/>
@@ -12292,16 +12290,16 @@
       <c r="A53" s="162">
         <v>5</v>
       </c>
-      <c r="B53" s="182"/>
-      <c r="C53" s="250"/>
-      <c r="D53" s="251"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="173"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="257"/>
+      <c r="D53" s="258"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="172"/>
+      <c r="K53" s="172"/>
       <c r="L53" s="153"/>
       <c r="M53" s="126"/>
       <c r="N53" s="60"/>
@@ -12311,16 +12309,16 @@
       <c r="A54" s="162">
         <v>6</v>
       </c>
-      <c r="B54" s="182"/>
-      <c r="C54" s="250"/>
-      <c r="D54" s="251"/>
-      <c r="E54" s="172"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="173"/>
-      <c r="K54" s="173"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="257"/>
+      <c r="D54" s="258"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="172"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="183"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="172"/>
+      <c r="K54" s="172"/>
       <c r="L54" s="153"/>
       <c r="M54" s="126"/>
       <c r="N54" s="60"/>
@@ -12329,14 +12327,14 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="242" t="s">
+      <c r="C55" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="242"/>
-      <c r="E55" s="242"/>
-      <c r="F55" s="243"/>
-      <c r="G55" s="243"/>
-      <c r="H55" s="242"/>
+      <c r="D55" s="238"/>
+      <c r="E55" s="238"/>
+      <c r="F55" s="250"/>
+      <c r="G55" s="250"/>
+      <c r="H55" s="238"/>
       <c r="I55" s="32"/>
       <c r="J55" s="161"/>
       <c r="K55" s="32"/>
@@ -12352,10 +12350,10 @@
       <c r="B56" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="248" t="s">
+      <c r="C56" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="249"/>
+      <c r="D56" s="245"/>
       <c r="E56" s="36" t="s">
         <v>47</v>
       </c>
@@ -12389,10 +12387,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="160"/>
-      <c r="C57" s="254"/>
-      <c r="D57" s="255"/>
-      <c r="E57" s="194"/>
-      <c r="F57" s="194"/>
+      <c r="C57" s="248"/>
+      <c r="D57" s="249"/>
+      <c r="E57" s="193"/>
+      <c r="F57" s="193"/>
       <c r="G57" s="19"/>
       <c r="H57" s="41"/>
       <c r="I57" s="19"/>
@@ -12404,35 +12402,35 @@
       <c r="O57" s="42"/>
     </row>
     <row r="58" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="204">
+      <c r="A58" s="203">
         <v>2</v>
       </c>
-      <c r="B58" s="205"/>
-      <c r="C58" s="254"/>
-      <c r="D58" s="255"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="168"/>
-      <c r="H58" s="169"/>
-      <c r="I58" s="168"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="168"/>
-      <c r="L58" s="207"/>
-      <c r="M58" s="208"/>
-      <c r="N58" s="209"/>
-      <c r="O58" s="209"/>
+      <c r="B58" s="204"/>
+      <c r="C58" s="248"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="167"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="167"/>
+      <c r="J58" s="167"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="206"/>
+      <c r="M58" s="207"/>
+      <c r="N58" s="208"/>
+      <c r="O58" s="208"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="157"/>
-      <c r="C59" s="242" t="s">
+      <c r="C59" s="238" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="242"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="243"/>
-      <c r="G59" s="243"/>
-      <c r="H59" s="242"/>
+      <c r="D59" s="238"/>
+      <c r="E59" s="238"/>
+      <c r="F59" s="250"/>
+      <c r="G59" s="250"/>
+      <c r="H59" s="238"/>
       <c r="I59" s="32"/>
       <c r="J59" s="161"/>
       <c r="K59" s="32"/>
@@ -12448,10 +12446,10 @@
       <c r="B60" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="248" t="s">
+      <c r="C60" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="249"/>
+      <c r="D60" s="245"/>
       <c r="E60" s="36" t="s">
         <v>47</v>
       </c>
@@ -12485,10 +12483,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="160"/>
-      <c r="C61" s="252" t="s">
+      <c r="C61" s="242" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="253"/>
+      <c r="D61" s="243"/>
       <c r="E61" s="46"/>
       <c r="F61" s="45"/>
       <c r="G61" s="19" t="s">
@@ -12508,10 +12506,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="160"/>
-      <c r="C62" s="252" t="s">
+      <c r="C62" s="242" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="253"/>
+      <c r="D62" s="243"/>
       <c r="E62" s="46" t="s">
         <v>54</v>
       </c>
@@ -12533,10 +12531,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="160"/>
-      <c r="C63" s="252" t="s">
+      <c r="C63" s="242" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="253"/>
+      <c r="D63" s="243"/>
       <c r="E63" s="46" t="s">
         <v>56</v>
       </c>
@@ -12558,10 +12556,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="160"/>
-      <c r="C64" s="252" t="s">
+      <c r="C64" s="242" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="253"/>
+      <c r="D64" s="243"/>
       <c r="E64" s="46" t="s">
         <v>57</v>
       </c>
@@ -12583,10 +12581,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="160"/>
-      <c r="C65" s="252" t="s">
+      <c r="C65" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="253"/>
+      <c r="D65" s="243"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="19" t="s">
@@ -12606,10 +12604,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="160"/>
-      <c r="C66" s="252" t="s">
+      <c r="C66" s="242" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="253"/>
+      <c r="D66" s="243"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
       <c r="G66" s="19" t="s">
@@ -12629,10 +12627,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="160"/>
-      <c r="C67" s="252" t="s">
+      <c r="C67" s="242" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="253"/>
+      <c r="D67" s="243"/>
       <c r="E67" s="46"/>
       <c r="F67" s="45"/>
       <c r="G67" s="19" t="s">
@@ -12652,10 +12650,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="160"/>
-      <c r="C68" s="252" t="s">
+      <c r="C68" s="242" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="253"/>
+      <c r="D68" s="243"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="19" t="s">
@@ -12675,11 +12673,11 @@
         <v>9</v>
       </c>
       <c r="B69" s="160"/>
-      <c r="C69" s="252"/>
-      <c r="D69" s="253"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="243"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="194"/>
+      <c r="G69" s="193"/>
       <c r="H69" s="41"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
@@ -12692,14 +12690,14 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="245" t="s">
+      <c r="C70" s="236" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="246"/>
-      <c r="E70" s="246"/>
-      <c r="F70" s="246"/>
-      <c r="G70" s="246"/>
-      <c r="H70" s="246"/>
+      <c r="D70" s="241"/>
+      <c r="E70" s="241"/>
+      <c r="F70" s="241"/>
+      <c r="G70" s="241"/>
+      <c r="H70" s="241"/>
       <c r="I70" s="31"/>
       <c r="J70" s="31"/>
       <c r="K70" s="32"/>
@@ -12713,16 +12711,16 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="157"/>
-      <c r="C71" s="245" t="s">
+      <c r="C71" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="246"/>
-      <c r="E71" s="246"/>
-      <c r="F71" s="246"/>
-      <c r="G71" s="246"/>
-      <c r="H71" s="246"/>
-      <c r="I71" s="246"/>
-      <c r="J71" s="247"/>
+      <c r="D71" s="241"/>
+      <c r="E71" s="241"/>
+      <c r="F71" s="241"/>
+      <c r="G71" s="241"/>
+      <c r="H71" s="241"/>
+      <c r="I71" s="241"/>
+      <c r="J71" s="237"/>
       <c r="K71" s="32"/>
       <c r="L71" s="33" t="s">
         <v>45</v>
@@ -12736,10 +12734,10 @@
       <c r="B72" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="248" t="s">
+      <c r="C72" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="249"/>
+      <c r="D72" s="245"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
@@ -12769,10 +12767,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="160"/>
-      <c r="C73" s="258" t="s">
+      <c r="C73" s="246" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="259"/>
+      <c r="D73" s="247"/>
       <c r="E73" s="18"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
@@ -12792,10 +12790,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="160"/>
-      <c r="C74" s="258" t="s">
+      <c r="C74" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="259"/>
+      <c r="D74" s="247"/>
       <c r="E74" s="18"/>
       <c r="F74" s="19"/>
       <c r="G74" s="18" t="s">
@@ -12813,17 +12811,17 @@
     <row r="75" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="245" t="s">
+      <c r="C75" s="236" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="247"/>
+      <c r="D75" s="237"/>
       <c r="E75" s="157"/>
-      <c r="F75" s="242" t="s">
+      <c r="F75" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
+      <c r="G75" s="238"/>
+      <c r="H75" s="238"/>
+      <c r="I75" s="238"/>
       <c r="J75" s="54"/>
       <c r="K75" s="32"/>
       <c r="L75" s="33" t="s">
@@ -12836,17 +12834,17 @@
     <row r="76" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="157"/>
-      <c r="C76" s="256" t="s">
+      <c r="C76" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="257"/>
+      <c r="D76" s="240"/>
       <c r="E76" s="158"/>
-      <c r="F76" s="245" t="s">
+      <c r="F76" s="236" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="246"/>
-      <c r="H76" s="246"/>
-      <c r="I76" s="246"/>
+      <c r="G76" s="241"/>
+      <c r="H76" s="241"/>
+      <c r="I76" s="241"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
       <c r="L76" s="55" t="s">
@@ -12858,29 +12856,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C58:D58"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:K2"/>
@@ -12896,6 +12871,29 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Support/Sunac2019/Data/门窗算量表格模板.xlsx
+++ b/Support/Sunac2019/Data/门窗算量表格模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0CAD\Project\融创\Code\Support\Sunac2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27609FB4-505C-4990-995C-D4175A55E380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9D8A77-8B55-4EE3-93B3-0FA6920FC1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
   <si>
     <t>窗单价组合分析表</t>
   </si>
@@ -617,6 +617,9 @@
   <si>
     <t>税前直接费单价（元/M2)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1264,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,15 +1819,9 @@
     <xf numFmtId="1" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1873,13 +1870,31 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1897,12 +1912,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1942,63 +1951,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,14 +1966,68 @@
     <xf numFmtId="176" fontId="6" fillId="3" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -8177,111 +8183,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="214" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
-      <c r="T1" s="212"/>
-      <c r="U1" s="212"/>
-      <c r="V1" s="212"/>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="212"/>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="212"/>
-      <c r="AD1" s="212"/>
-      <c r="AE1" s="212"/>
-      <c r="AF1" s="212"/>
-      <c r="AG1" s="212"/>
-      <c r="AH1" s="212"/>
-      <c r="AI1" s="212"/>
-      <c r="AJ1" s="212"/>
-      <c r="AK1" s="212"/>
-      <c r="AL1" s="212"/>
-      <c r="AM1" s="212"/>
-      <c r="AN1" s="212"/>
-      <c r="AO1" s="212"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="214"/>
+      <c r="T1" s="214"/>
+      <c r="U1" s="214"/>
+      <c r="V1" s="214"/>
+      <c r="W1" s="214"/>
+      <c r="X1" s="214"/>
+      <c r="Y1" s="214"/>
+      <c r="Z1" s="214"/>
+      <c r="AA1" s="214"/>
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="214"/>
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="214"/>
+      <c r="AM1" s="214"/>
+      <c r="AN1" s="214"/>
+      <c r="AO1" s="214"/>
       <c r="AP1" s="62"/>
       <c r="AQ1" s="62"/>
       <c r="AR1" s="62"/>
     </row>
     <row r="2" spans="1:47" s="61" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="213"/>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="213"/>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="213"/>
-      <c r="AJ2" s="213"/>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="213"/>
-      <c r="AM2" s="213"/>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="213"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="215"/>
       <c r="AP2" s="62"/>
       <c r="AQ2" s="62"/>
       <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="217" t="s">
+      <c r="D3" s="205" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="205" t="s">
         <v>147</v>
       </c>
       <c r="F3" s="219" t="s">
@@ -8320,26 +8326,26 @@
       </c>
       <c r="T3" s="230"/>
       <c r="U3" s="231"/>
-      <c r="V3" s="211" t="s">
+      <c r="V3" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="211" t="s">
+      <c r="W3" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="X3" s="211" t="s">
+      <c r="X3" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" s="211" t="s">
+      <c r="Y3" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" s="232" t="s">
+      <c r="Z3" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="233"/>
-      <c r="AB3" s="233"/>
-      <c r="AC3" s="233"/>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="234"/>
+      <c r="AA3" s="210"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="210"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="211"/>
       <c r="AF3" s="92" t="s">
         <v>107</v>
       </c>
@@ -8358,35 +8364,35 @@
       <c r="AK3" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="AL3" s="235" t="s">
+      <c r="AL3" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="AM3" s="235" t="s">
+      <c r="AM3" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="AN3" s="235" t="s">
+      <c r="AN3" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="AO3" s="235" t="s">
+      <c r="AO3" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="AP3" s="232" t="s">
+      <c r="AP3" s="209" t="s">
         <v>92</v>
       </c>
-      <c r="AQ3" s="233"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="232" t="s">
+      <c r="AQ3" s="210"/>
+      <c r="AR3" s="211"/>
+      <c r="AS3" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="AT3" s="233"/>
-      <c r="AU3" s="234"/>
+      <c r="AT3" s="210"/>
+      <c r="AU3" s="211"/>
     </row>
     <row r="4" spans="1:47" s="64" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="215"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
       <c r="F4" s="219"/>
       <c r="G4" s="219"/>
       <c r="H4" s="221"/>
@@ -8421,10 +8427,10 @@
       <c r="U4" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="211"/>
-      <c r="W4" s="211"/>
-      <c r="X4" s="211"/>
-      <c r="Y4" s="211"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
       <c r="Z4" s="66" t="s">
         <v>101</v>
       </c>
@@ -8461,10 +8467,10 @@
       <c r="AK4" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="AL4" s="235"/>
-      <c r="AM4" s="235"/>
-      <c r="AN4" s="235"/>
-      <c r="AO4" s="235"/>
+      <c r="AL4" s="208"/>
+      <c r="AM4" s="208"/>
+      <c r="AN4" s="208"/>
+      <c r="AO4" s="208"/>
       <c r="AP4" s="66" t="s">
         <v>136</v>
       </c>
@@ -8507,10 +8513,10 @@
       <c r="H5" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="209" t="s">
+      <c r="I5" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="210"/>
+      <c r="J5" s="213"/>
       <c r="K5" s="70" t="s">
         <v>117</v>
       </c>
@@ -11148,18 +11154,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="B1:AO2"/>
@@ -11176,6 +11170,18 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AO3:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11188,8 +11194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11213,52 +11219,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="253"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
     </row>
     <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="195" t="s">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="195" t="s">
+      <c r="E2" s="192"/>
+      <c r="F2" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="197"/>
-      <c r="H2" s="198" t="s">
+      <c r="G2" s="193"/>
+      <c r="H2" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="197"/>
-      <c r="J2" s="255" t="s">
+      <c r="I2" s="193"/>
+      <c r="J2" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="255"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200" t="s">
+      <c r="K2" s="236"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="201"/>
+      <c r="O2" s="197"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -11341,8 +11347,12 @@
       <c r="G6" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="188"/>
-      <c r="I6" s="187"/>
+      <c r="H6" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="255" t="s">
+        <v>153</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -11362,8 +11372,12 @@
       <c r="G7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="187"/>
+      <c r="H7" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="255" t="s">
+        <v>153</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -11383,8 +11397,12 @@
       <c r="G8" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="187"/>
+      <c r="H8" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="255" t="s">
+        <v>153</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -11404,8 +11422,10 @@
       <c r="G9" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="188"/>
-      <c r="I9" s="186"/>
+      <c r="H9" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="255"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -11425,8 +11445,12 @@
       <c r="G10" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="187"/>
+      <c r="H10" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="255" t="s">
+        <v>153</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -11446,8 +11470,12 @@
       <c r="G11" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="187"/>
+      <c r="H11" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="255" t="s">
+        <v>153</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -11467,8 +11495,12 @@
       <c r="G12" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="188"/>
-      <c r="I12" s="187"/>
+      <c r="H12" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="255" t="s">
+        <v>153</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -11488,8 +11520,10 @@
       <c r="G13" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="188"/>
-      <c r="I13" s="186"/>
+      <c r="H13" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="255"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -11503,14 +11537,16 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="189" t="s">
+      <c r="F14" s="188" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="H14" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="256"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -11524,14 +11560,16 @@
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="189" t="s">
+      <c r="F15" s="188" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="190"/>
-      <c r="I15" s="192"/>
+      <c r="H15" s="255" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="257"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -11543,7 +11581,7 @@
       <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="202" t="s">
+      <c r="B16" s="198" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="164" t="s">
@@ -12100,16 +12138,16 @@
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="256" t="s">
+      <c r="A44" s="239" t="s">
         <v>141</v>
       </c>
-      <c r="B44" s="256"/>
-      <c r="C44" s="256"/>
-      <c r="D44" s="256"/>
-      <c r="E44" s="256"/>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
-      <c r="H44" s="256"/>
+      <c r="B44" s="239"/>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
+      <c r="H44" s="239"/>
       <c r="I44" s="19"/>
       <c r="J44" s="28"/>
       <c r="K44" s="19"/>
@@ -12119,16 +12157,16 @@
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="256" t="s">
+      <c r="A45" s="239" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="256"/>
-      <c r="C45" s="256"/>
-      <c r="D45" s="256"/>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="256"/>
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="239"/>
+      <c r="H45" s="239"/>
       <c r="I45" s="19"/>
       <c r="J45" s="28"/>
       <c r="K45" s="19"/>
@@ -12138,16 +12176,16 @@
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="256" t="s">
+      <c r="A46" s="239" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="256"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
+      <c r="B46" s="239"/>
+      <c r="C46" s="239"/>
+      <c r="D46" s="239"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="239"/>
+      <c r="G46" s="239"/>
+      <c r="H46" s="239"/>
       <c r="I46" s="19"/>
       <c r="J46" s="28"/>
       <c r="K46" s="19"/>
@@ -12159,14 +12197,14 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="157"/>
-      <c r="C47" s="236" t="s">
+      <c r="C47" s="240" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="241"/>
       <c r="E47" s="241"/>
       <c r="F47" s="241"/>
       <c r="G47" s="241"/>
-      <c r="H47" s="237"/>
+      <c r="H47" s="242"/>
       <c r="I47" s="32"/>
       <c r="J47" s="33"/>
       <c r="K47" s="32"/>
@@ -12180,10 +12218,10 @@
       <c r="B48" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="244" t="s">
+      <c r="C48" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="245"/>
+      <c r="D48" s="244"/>
       <c r="E48" s="36" t="s">
         <v>40</v>
       </c>
@@ -12215,8 +12253,8 @@
         <v>1</v>
       </c>
       <c r="B49" s="181"/>
-      <c r="C49" s="257"/>
-      <c r="D49" s="258"/>
+      <c r="C49" s="245"/>
+      <c r="D49" s="246"/>
       <c r="E49" s="171"/>
       <c r="F49" s="172"/>
       <c r="G49" s="182"/>
@@ -12234,8 +12272,8 @@
         <v>2</v>
       </c>
       <c r="B50" s="181"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="258"/>
+      <c r="C50" s="245"/>
+      <c r="D50" s="246"/>
       <c r="E50" s="171"/>
       <c r="F50" s="172"/>
       <c r="G50" s="182"/>
@@ -12253,8 +12291,8 @@
         <v>3</v>
       </c>
       <c r="B51" s="181"/>
-      <c r="C51" s="257"/>
-      <c r="D51" s="258"/>
+      <c r="C51" s="245"/>
+      <c r="D51" s="246"/>
       <c r="E51" s="171"/>
       <c r="F51" s="172"/>
       <c r="G51" s="182"/>
@@ -12272,8 +12310,8 @@
         <v>4</v>
       </c>
       <c r="B52" s="181"/>
-      <c r="C52" s="257"/>
-      <c r="D52" s="258"/>
+      <c r="C52" s="245"/>
+      <c r="D52" s="246"/>
       <c r="E52" s="171"/>
       <c r="F52" s="172"/>
       <c r="G52" s="182"/>
@@ -12291,8 +12329,8 @@
         <v>5</v>
       </c>
       <c r="B53" s="181"/>
-      <c r="C53" s="257"/>
-      <c r="D53" s="258"/>
+      <c r="C53" s="245"/>
+      <c r="D53" s="246"/>
       <c r="E53" s="171"/>
       <c r="F53" s="171"/>
       <c r="G53" s="171"/>
@@ -12310,8 +12348,8 @@
         <v>6</v>
       </c>
       <c r="B54" s="181"/>
-      <c r="C54" s="257"/>
-      <c r="D54" s="258"/>
+      <c r="C54" s="245"/>
+      <c r="D54" s="246"/>
       <c r="E54" s="171"/>
       <c r="F54" s="172"/>
       <c r="G54" s="183"/>
@@ -12327,14 +12365,14 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="157"/>
-      <c r="C55" s="238" t="s">
+      <c r="C55" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="238"/>
-      <c r="E55" s="238"/>
-      <c r="F55" s="250"/>
-      <c r="G55" s="250"/>
-      <c r="H55" s="238"/>
+      <c r="D55" s="237"/>
+      <c r="E55" s="237"/>
+      <c r="F55" s="238"/>
+      <c r="G55" s="238"/>
+      <c r="H55" s="237"/>
       <c r="I55" s="32"/>
       <c r="J55" s="161"/>
       <c r="K55" s="32"/>
@@ -12350,10 +12388,10 @@
       <c r="B56" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="244" t="s">
+      <c r="C56" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="245"/>
+      <c r="D56" s="244"/>
       <c r="E56" s="36" t="s">
         <v>47</v>
       </c>
@@ -12387,10 +12425,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="160"/>
-      <c r="C57" s="248"/>
-      <c r="D57" s="249"/>
-      <c r="E57" s="193"/>
-      <c r="F57" s="193"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="250"/>
+      <c r="E57" s="189"/>
+      <c r="F57" s="189"/>
       <c r="G57" s="19"/>
       <c r="H57" s="41"/>
       <c r="I57" s="19"/>
@@ -12402,35 +12440,35 @@
       <c r="O57" s="42"/>
     </row>
     <row r="58" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="203">
+      <c r="A58" s="199">
         <v>2</v>
       </c>
-      <c r="B58" s="204"/>
-      <c r="C58" s="248"/>
-      <c r="D58" s="249"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
+      <c r="B58" s="200"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="250"/>
+      <c r="E58" s="201"/>
+      <c r="F58" s="201"/>
       <c r="G58" s="167"/>
       <c r="H58" s="168"/>
       <c r="I58" s="167"/>
       <c r="J58" s="167"/>
       <c r="K58" s="167"/>
-      <c r="L58" s="206"/>
-      <c r="M58" s="207"/>
-      <c r="N58" s="208"/>
-      <c r="O58" s="208"/>
+      <c r="L58" s="202"/>
+      <c r="M58" s="203"/>
+      <c r="N58" s="204"/>
+      <c r="O58" s="204"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="157"/>
-      <c r="C59" s="238" t="s">
+      <c r="C59" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="238"/>
-      <c r="E59" s="238"/>
-      <c r="F59" s="250"/>
-      <c r="G59" s="250"/>
-      <c r="H59" s="238"/>
+      <c r="D59" s="237"/>
+      <c r="E59" s="237"/>
+      <c r="F59" s="238"/>
+      <c r="G59" s="238"/>
+      <c r="H59" s="237"/>
       <c r="I59" s="32"/>
       <c r="J59" s="161"/>
       <c r="K59" s="32"/>
@@ -12446,10 +12484,10 @@
       <c r="B60" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="244" t="s">
+      <c r="C60" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="245"/>
+      <c r="D60" s="244"/>
       <c r="E60" s="36" t="s">
         <v>47</v>
       </c>
@@ -12483,10 +12521,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="160"/>
-      <c r="C61" s="242" t="s">
+      <c r="C61" s="247" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="243"/>
+      <c r="D61" s="248"/>
       <c r="E61" s="46"/>
       <c r="F61" s="45"/>
       <c r="G61" s="19" t="s">
@@ -12506,10 +12544,10 @@
         <v>2</v>
       </c>
       <c r="B62" s="160"/>
-      <c r="C62" s="242" t="s">
+      <c r="C62" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="243"/>
+      <c r="D62" s="248"/>
       <c r="E62" s="46" t="s">
         <v>54</v>
       </c>
@@ -12531,10 +12569,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="160"/>
-      <c r="C63" s="242" t="s">
+      <c r="C63" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="243"/>
+      <c r="D63" s="248"/>
       <c r="E63" s="46" t="s">
         <v>56</v>
       </c>
@@ -12556,10 +12594,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="160"/>
-      <c r="C64" s="242" t="s">
+      <c r="C64" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="243"/>
+      <c r="D64" s="248"/>
       <c r="E64" s="46" t="s">
         <v>57</v>
       </c>
@@ -12581,10 +12619,10 @@
         <v>5</v>
       </c>
       <c r="B65" s="160"/>
-      <c r="C65" s="242" t="s">
+      <c r="C65" s="247" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="243"/>
+      <c r="D65" s="248"/>
       <c r="E65" s="46"/>
       <c r="F65" s="45"/>
       <c r="G65" s="19" t="s">
@@ -12604,10 +12642,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="160"/>
-      <c r="C66" s="242" t="s">
+      <c r="C66" s="247" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="243"/>
+      <c r="D66" s="248"/>
       <c r="E66" s="46"/>
       <c r="F66" s="45"/>
       <c r="G66" s="19" t="s">
@@ -12627,10 +12665,10 @@
         <v>7</v>
       </c>
       <c r="B67" s="160"/>
-      <c r="C67" s="242" t="s">
+      <c r="C67" s="247" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="243"/>
+      <c r="D67" s="248"/>
       <c r="E67" s="46"/>
       <c r="F67" s="45"/>
       <c r="G67" s="19" t="s">
@@ -12650,10 +12688,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="160"/>
-      <c r="C68" s="242" t="s">
+      <c r="C68" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="243"/>
+      <c r="D68" s="248"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="19" t="s">
@@ -12673,11 +12711,11 @@
         <v>9</v>
       </c>
       <c r="B69" s="160"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="243"/>
+      <c r="C69" s="247"/>
+      <c r="D69" s="248"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="193"/>
+      <c r="G69" s="189"/>
       <c r="H69" s="41"/>
       <c r="I69" s="19"/>
       <c r="J69" s="19"/>
@@ -12690,7 +12728,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="157"/>
-      <c r="C70" s="236" t="s">
+      <c r="C70" s="240" t="s">
         <v>60</v>
       </c>
       <c r="D70" s="241"/>
@@ -12711,7 +12749,7 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="157"/>
-      <c r="C71" s="236" t="s">
+      <c r="C71" s="240" t="s">
         <v>61</v>
       </c>
       <c r="D71" s="241"/>
@@ -12720,7 +12758,7 @@
       <c r="G71" s="241"/>
       <c r="H71" s="241"/>
       <c r="I71" s="241"/>
-      <c r="J71" s="237"/>
+      <c r="J71" s="242"/>
       <c r="K71" s="32"/>
       <c r="L71" s="33" t="s">
         <v>45</v>
@@ -12734,10 +12772,10 @@
       <c r="B72" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="244" t="s">
+      <c r="C72" s="243" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="245"/>
+      <c r="D72" s="244"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36" t="s">
@@ -12767,10 +12805,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="160"/>
-      <c r="C73" s="246" t="s">
+      <c r="C73" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="247"/>
+      <c r="D73" s="254"/>
       <c r="E73" s="18"/>
       <c r="F73" s="19"/>
       <c r="G73" s="18" t="s">
@@ -12790,10 +12828,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="160"/>
-      <c r="C74" s="246" t="s">
+      <c r="C74" s="253" t="s">
         <v>66</v>
       </c>
-      <c r="D74" s="247"/>
+      <c r="D74" s="254"/>
       <c r="E74" s="18"/>
       <c r="F74" s="19"/>
       <c r="G74" s="18" t="s">
@@ -12811,17 +12849,17 @@
     <row r="75" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="157"/>
-      <c r="C75" s="236" t="s">
+      <c r="C75" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="D75" s="237"/>
+      <c r="D75" s="242"/>
       <c r="E75" s="157"/>
-      <c r="F75" s="238" t="s">
+      <c r="F75" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="238"/>
-      <c r="H75" s="238"/>
-      <c r="I75" s="238"/>
+      <c r="G75" s="237"/>
+      <c r="H75" s="237"/>
+      <c r="I75" s="237"/>
       <c r="J75" s="54"/>
       <c r="K75" s="32"/>
       <c r="L75" s="33" t="s">
@@ -12834,12 +12872,12 @@
     <row r="76" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="157"/>
-      <c r="C76" s="239" t="s">
+      <c r="C76" s="251" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="240"/>
+      <c r="D76" s="252"/>
       <c r="E76" s="158"/>
-      <c r="F76" s="236" t="s">
+      <c r="F76" s="240" t="s">
         <v>68</v>
       </c>
       <c r="G76" s="241"/>
@@ -12856,6 +12894,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="J2:K2"/>
@@ -12871,29 +12932,6 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
